--- a/Flask Blog Test Report.xlsx
+++ b/Flask Blog Test Report.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Página2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="TS01" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="TS02" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
   <si>
     <t>Documento de teste</t>
   </si>
@@ -27,33 +28,33 @@
     <t>Initials</t>
   </si>
   <si>
+    <t>Nome</t>
+  </si>
+  <si>
     <t>Projeto</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>General Information</t>
   </si>
   <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>In this test suite the login functionality of the system will be tested</t>
+  </si>
+  <si>
     <t>TS</t>
   </si>
   <si>
-    <t>Versão</t>
-  </si>
-  <si>
-    <t>In this test suite the login functionality of the system will be tested</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Test Suite</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Represents a complete collection of test cases that are intended to be tested</t>
   </si>
   <si>
@@ -81,27 +82,39 @@
     <t>Failures</t>
   </si>
   <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
     <t>TC001: Login with valid credentials</t>
   </si>
   <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>Warning</t>
-  </si>
-  <si>
     <t>This test will validate if the systems behaves as expected when informed with valid credentials</t>
   </si>
   <si>
+    <t>TS02: Registration validations</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
     <t>Gustavo Maciel</t>
   </si>
   <si>
+    <t>In this test suite the registration functionality of the system will be tested</t>
+  </si>
+  <si>
     <t>Run by</t>
   </si>
   <si>
+    <t>1m 29s 667ms</t>
+  </si>
+  <si>
+    <t>TC001: Register with correct credentials</t>
+  </si>
+  <si>
     <t>Preconditions</t>
   </si>
   <si>
@@ -114,15 +127,24 @@
     <t>Login performed by the system and changes in the home interface</t>
   </si>
   <si>
+    <t>The website must be opened in the register URL, valid credentials must be informed</t>
+  </si>
+  <si>
     <t>Achieved Results</t>
   </si>
   <si>
     <t>Login was performed by the system, all changes in the home interface were achieved</t>
   </si>
   <si>
+    <t>Registration performed by the system</t>
+  </si>
+  <si>
     <t>Dependecies</t>
   </si>
   <si>
+    <t>The registration was performed by the system</t>
+  </si>
+  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -165,24 +187,39 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Fill in the fields "Username", "Email", "Password" and "Confirm Password" with the credentials and click the button "Sign In"</t>
+  </si>
+  <si>
     <t>Fill in the fields "Email" and "Password" with the credentials and click the button "Login"</t>
   </si>
   <si>
     <t>Sim</t>
   </si>
   <si>
+    <t>TC002: Register with correct credentials and login</t>
+  </si>
+  <si>
     <t>TC002: Login with invalid credentials</t>
   </si>
   <si>
+    <t>This test will validate if the systems behaves as expected when informed with valid credentials and then login with the new account created</t>
+  </si>
+  <si>
     <t>This test will validate if the systems behaves as expected when informed with invalid credentials (An account not yet registered in the system)</t>
   </si>
   <si>
     <t>The website must be opened in the login URL, non-registered credentials must be at hand</t>
   </si>
   <si>
+    <t>Registration and login performed by the system</t>
+  </si>
+  <si>
     <t>The system will show an alert informing the user about  the invalid credentials</t>
   </si>
   <si>
+    <t>The registration and the login were performed by the system</t>
+  </si>
+  <si>
     <t>No login was performed by the system, the alert was shown</t>
   </si>
   <si>
@@ -195,9 +232,27 @@
     <t>This test will validate if the systems behaves as expected when informed with an invalid format email (example: "test" instead of "mail@domain.domain")</t>
   </si>
   <si>
+    <t>Login performed by the system</t>
+  </si>
+  <si>
+    <t>login was performed by the system</t>
+  </si>
+  <si>
     <t>The website must be opened in the login URL, a non-email-formated string must be at hand</t>
   </si>
   <si>
+    <t>TC003: Register with already existent username</t>
+  </si>
+  <si>
+    <t>This test will validate if the systems behaves as expected when informed with an already existent username</t>
+  </si>
+  <si>
+    <t>The website must be opened in the register URL, an existent username must be at hand</t>
+  </si>
+  <si>
+    <t>No registration was performed by the system, the alert was shown</t>
+  </si>
+  <si>
     <t>TC004: Login without email</t>
   </si>
   <si>
@@ -207,6 +262,15 @@
     <t>The website must be opened in the login URL, the email field must have the "required" attribute removed via JavaScript</t>
   </si>
   <si>
+    <t>TC004: Register with already existent email</t>
+  </si>
+  <si>
+    <t>This test will validate if the systems behaves as expected when informed with an already existent email</t>
+  </si>
+  <si>
+    <t>The website must be opened in the register URL, an existent email must be at hand</t>
+  </si>
+  <si>
     <t>Use JavaScript to remove the required attribute from the email input field</t>
   </si>
   <si>
@@ -225,18 +289,36 @@
     <t>This test will validate if the systems behaves as expected when nothing is informed in the password input field</t>
   </si>
   <si>
+    <t>TC005: Register without username</t>
+  </si>
+  <si>
+    <t>This test will validate if the systems behaves as expected when nothing is informed in the username input field</t>
+  </si>
+  <si>
     <t>The website must be opened in the login URL, the password field must have the "required" attribute removed via JavaScript</t>
   </si>
   <si>
+    <t>The website must be opened in the register URL, the username field must have the "required" attribute removed via JavaScript</t>
+  </si>
+  <si>
     <t>Use JavaScript to remove the required attribute from the password input field</t>
   </si>
   <si>
+    <t>Use JavaScript to remove the required attribute from the username input field</t>
+  </si>
+  <si>
     <t>TC006: Access restricted page</t>
   </si>
   <si>
+    <t>Fill in the fields "Email", "Password" and "Confirm Password" with the credentials and click the button "Sign In"</t>
+  </si>
+  <si>
     <t>This test will validate if the systems behaves as expected when an user tries to access a restricted page without being logged in</t>
   </si>
   <si>
+    <t>TC006: Register without email</t>
+  </si>
+  <si>
     <t>The website must be opened in the the create a new post URL without being logged in any account</t>
   </si>
   <si>
@@ -246,6 +328,9 @@
     <t>The system forbid the access of the page and an alert was shown</t>
   </si>
   <si>
+    <t>The website must be opened in the register URL, the email field must have the "required" attribute removed via JavaScript</t>
+  </si>
+  <si>
     <t>Access a protected URL</t>
   </si>
   <si>
@@ -255,6 +340,12 @@
     <t>This test will validate if the systems behaves as expected when an user tries to logout</t>
   </si>
   <si>
+    <t>Fill in the fields "Username", "Password" and "Confirm Password" with the credentials and click the button "Sign In"</t>
+  </si>
+  <si>
+    <t>TC007: Register without password</t>
+  </si>
+  <si>
     <t>The website must be opened and logged in a valid account</t>
   </si>
   <si>
@@ -264,14 +355,53 @@
     <t>The system logged out the user and redirected to the base URL</t>
   </si>
   <si>
+    <t>The website must be opened in the register URL, the password field must have the "required" attribute removed via JavaScript</t>
+  </si>
+  <si>
     <t>Click the logout button</t>
+  </si>
+  <si>
+    <t>Fill in the fields "Username", "Email" and "Confirm Password" with the credentials and click the button "Sign In"</t>
+  </si>
+  <si>
+    <t>TC008: Register without confirming password</t>
+  </si>
+  <si>
+    <t>This test will validate if the systems behaves as expected when nothing is informed in the confirm password input field</t>
+  </si>
+  <si>
+    <t>The website must be opened in the register URL, the confirm password field must have the "required" attribute removed via JavaScript</t>
+  </si>
+  <si>
+    <t>Use JavaScript to remove the required attribute from the confirm password input field</t>
+  </si>
+  <si>
+    <t>Fill in the fields "Username", "Email" and "Password" with the credentials and click the button "Sign In"</t>
+  </si>
+  <si>
+    <t>TC009: Register with unmatching passwords</t>
+  </si>
+  <si>
+    <t>This test will validate if the systems behaves as expected when the password and the confirm password fields don't match</t>
+  </si>
+  <si>
+    <t>The website must be opened in the register URL, unmatching passwords must be informed</t>
+  </si>
+  <si>
+    <t>TC010: Register with way too big username</t>
+  </si>
+  <si>
+    <t>This test will validate if the systems behaves as expected when the username field receives a big string (maior que 20 characters)</t>
+  </si>
+  <si>
+    <t>The website must be opened in the register URL, a username with more than 20 characters must be at hand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -306,13 +436,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -327,6 +450,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -402,6 +529,14 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -413,9 +548,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -432,6 +564,9 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -440,6 +575,8 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -448,24 +585,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <right style="thin">
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </right>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -493,28 +620,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -523,39 +648,44 @@
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -564,100 +694,103 @@
     <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="13" fillId="7" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="13" fillId="8" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="13" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -677,6 +810,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -885,31 +1022,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3">
-      <c r="C3" s="8" t="s">
-        <v>4</v>
+      <c r="C3" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4">
-      <c r="C4" s="8" t="s">
-        <v>9</v>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="14"/>
@@ -941,29 +1078,29 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="12"/>
@@ -973,15 +1110,15 @@
       <c r="K3" s="14"/>
     </row>
     <row r="4">
-      <c r="B4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>11</v>
+      <c r="B4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="12"/>
@@ -994,12 +1131,12 @@
       <c r="B5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="12"/>
@@ -1009,19 +1146,19 @@
       <c r="K5" s="14"/>
     </row>
     <row r="10">
-      <c r="D10" s="32"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11">
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1054,29 +1191,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2">
-      <c r="A2" s="11"/>
-      <c r="N2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1092,7 +1229,7 @@
       <c r="N3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="12"/>
@@ -1110,28 +1247,28 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="4"/>
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>12</v>
+      <c r="A6" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="24">
         <v>7.0</v>
@@ -1140,33 +1277,33 @@
       <c r="D6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="30">
         <v>7.0</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="36">
         <v>0.0</v>
       </c>
       <c r="C9" s="14"/>
@@ -1184,21 +1321,21 @@
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
@@ -1221,12 +1358,12 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="40" t="s">
-        <v>26</v>
+      <c r="A14" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="41" t="s">
-        <v>27</v>
+      <c r="C14" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1241,12 +1378,12 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="43" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1261,12 +1398,12 @@
       <c r="N15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="40" t="s">
-        <v>29</v>
+      <c r="A16" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="44" t="s">
-        <v>30</v>
+      <c r="C16" s="45" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1281,12 +1418,12 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="42" t="s">
-        <v>31</v>
+      <c r="A17" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="45" t="s">
-        <v>32</v>
+      <c r="C17" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1301,12 +1438,12 @@
       <c r="N17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="40" t="s">
-        <v>33</v>
+      <c r="A18" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="29" t="s">
-        <v>34</v>
+      <c r="C18" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1321,11 +1458,11 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19">
-      <c r="A19" s="42" t="s">
-        <v>35</v>
+      <c r="A19" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1339,39 +1476,39 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20">
-      <c r="A20" s="46" t="s">
-        <v>36</v>
+      <c r="A20" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="G20" s="17"/>
       <c r="H20" s="14"/>
       <c r="I20" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="J20" s="17"/>
       <c r="K20" s="14"/>
       <c r="L20" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="M20" s="17"/>
       <c r="N20" s="14"/>
     </row>
     <row r="21">
       <c r="A21" s="38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1386,7 +1523,7 @@
     </row>
     <row r="22">
       <c r="A22" s="50" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1404,28 +1541,28 @@
     </row>
     <row r="23">
       <c r="A23" s="51" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
       <c r="E23" s="52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="14"/>
       <c r="H23" s="52" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="14"/>
       <c r="K23" s="53" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L23" s="52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="14"/>
@@ -1435,44 +1572,44 @@
         <v>1.0</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
       <c r="E24" s="55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="56" t="s">
-        <v>34</v>
+      <c r="H24" s="57" t="s">
+        <v>39</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="18"/>
+      <c r="K24" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="17"/>
       <c r="M24" s="12"/>
       <c r="N24" s="14"/>
     </row>
     <row r="27">
       <c r="A27" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="s">
@@ -1480,7 +1617,7 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="39" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -1495,12 +1632,12 @@
       <c r="N28" s="14"/>
     </row>
     <row r="29">
-      <c r="A29" s="40" t="s">
-        <v>26</v>
+      <c r="A29" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="41" t="s">
-        <v>27</v>
+      <c r="C29" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1515,12 +1652,12 @@
       <c r="N29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="43" t="s">
-        <v>27</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -1535,12 +1672,12 @@
       <c r="N30" s="14"/>
     </row>
     <row r="31">
-      <c r="A31" s="40" t="s">
-        <v>29</v>
+      <c r="A31" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="44" t="s">
-        <v>54</v>
+      <c r="C31" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -1555,12 +1692,12 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32">
-      <c r="A32" s="42" t="s">
-        <v>31</v>
+      <c r="A32" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="45" t="s">
-        <v>55</v>
+      <c r="C32" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -1575,12 +1712,12 @@
       <c r="N32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="40" t="s">
-        <v>33</v>
+      <c r="A33" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="29" t="s">
-        <v>56</v>
+      <c r="C33" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -1595,11 +1732,11 @@
       <c r="N33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="42" t="s">
-        <v>35</v>
+      <c r="A34" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="18"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -1613,39 +1750,39 @@
       <c r="N34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="46" t="s">
-        <v>36</v>
+      <c r="A35" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="G35" s="17"/>
       <c r="H35" s="14"/>
       <c r="I35" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="J35" s="17"/>
       <c r="K35" s="14"/>
       <c r="L35" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="M35" s="17"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="18"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -1660,7 +1797,7 @@
     </row>
     <row r="37">
       <c r="A37" s="58" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1677,76 +1814,76 @@
       <c r="N37" s="14"/>
     </row>
     <row r="38">
-      <c r="A38" s="59" t="s">
-        <v>44</v>
+      <c r="A38" s="51" t="s">
+        <v>51</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
       <c r="E38" s="52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="14"/>
       <c r="H38" s="52" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="14"/>
       <c r="K38" s="53" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L38" s="52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="14"/>
     </row>
     <row r="39">
-      <c r="A39" s="60">
+      <c r="A39" s="54">
         <v>1.0</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="14"/>
       <c r="E39" s="55" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="56" t="s">
-        <v>56</v>
+      <c r="H39" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L39" s="18"/>
+      <c r="K39" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L39" s="17"/>
       <c r="M39" s="12"/>
       <c r="N39" s="14"/>
     </row>
     <row r="42">
       <c r="A42" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="38" t="s">
@@ -1754,7 +1891,7 @@
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="39" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -1769,12 +1906,12 @@
       <c r="N43" s="14"/>
     </row>
     <row r="44">
-      <c r="A44" s="40" t="s">
-        <v>26</v>
+      <c r="A44" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="C44" s="41" t="s">
-        <v>27</v>
+      <c r="C44" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -1789,12 +1926,12 @@
       <c r="N44" s="14"/>
     </row>
     <row r="45">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="43" t="s">
-        <v>27</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -1809,12 +1946,12 @@
       <c r="N45" s="14"/>
     </row>
     <row r="46">
-      <c r="A46" s="40" t="s">
-        <v>29</v>
+      <c r="A46" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="B46" s="14"/>
-      <c r="C46" s="44" t="s">
-        <v>60</v>
+      <c r="C46" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -1829,12 +1966,12 @@
       <c r="N46" s="14"/>
     </row>
     <row r="47">
-      <c r="A47" s="42" t="s">
-        <v>31</v>
+      <c r="A47" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="45" t="s">
-        <v>55</v>
+      <c r="C47" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -1849,12 +1986,12 @@
       <c r="N47" s="14"/>
     </row>
     <row r="48">
-      <c r="A48" s="40" t="s">
-        <v>33</v>
+      <c r="A48" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B48" s="14"/>
-      <c r="C48" s="29" t="s">
-        <v>56</v>
+      <c r="C48" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -1869,11 +2006,11 @@
       <c r="N48" s="14"/>
     </row>
     <row r="49">
-      <c r="A49" s="42" t="s">
-        <v>35</v>
+      <c r="A49" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B49" s="14"/>
-      <c r="C49" s="18"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -1887,39 +2024,39 @@
       <c r="N49" s="14"/>
     </row>
     <row r="50">
-      <c r="A50" s="46" t="s">
-        <v>36</v>
+      <c r="A50" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="G50" s="17"/>
       <c r="H50" s="14"/>
       <c r="I50" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="J50" s="17"/>
       <c r="K50" s="14"/>
       <c r="L50" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="M50" s="17"/>
       <c r="N50" s="14"/>
     </row>
     <row r="51">
       <c r="A51" s="38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="18"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -1934,7 +2071,7 @@
     </row>
     <row r="52">
       <c r="A52" s="58" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1952,28 +2089,28 @@
     </row>
     <row r="53">
       <c r="A53" s="51" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="14"/>
       <c r="E53" s="52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="14"/>
       <c r="H53" s="52" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="61" t="s">
-        <v>48</v>
+      <c r="K53" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="L53" s="52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="14"/>
@@ -1983,44 +2120,44 @@
         <v>1.0</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="14"/>
       <c r="E54" s="55" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="56" t="s">
-        <v>56</v>
+      <c r="H54" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L54" s="18"/>
+      <c r="K54" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="17"/>
       <c r="M54" s="12"/>
       <c r="N54" s="14"/>
     </row>
     <row r="57">
       <c r="A57" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="38" t="s">
@@ -2028,7 +2165,7 @@
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="39" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -2043,12 +2180,12 @@
       <c r="N58" s="14"/>
     </row>
     <row r="59">
-      <c r="A59" s="40" t="s">
-        <v>26</v>
+      <c r="A59" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B59" s="14"/>
-      <c r="C59" s="41" t="s">
-        <v>27</v>
+      <c r="C59" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -2063,12 +2200,12 @@
       <c r="N59" s="14"/>
     </row>
     <row r="60">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="43" t="s">
-        <v>27</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -2083,12 +2220,12 @@
       <c r="N60" s="14"/>
     </row>
     <row r="61">
-      <c r="A61" s="40" t="s">
-        <v>29</v>
+      <c r="A61" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="B61" s="14"/>
-      <c r="C61" s="44" t="s">
-        <v>63</v>
+      <c r="C61" s="45" t="s">
+        <v>81</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -2103,12 +2240,12 @@
       <c r="N61" s="14"/>
     </row>
     <row r="62">
-      <c r="A62" s="42" t="s">
-        <v>31</v>
+      <c r="A62" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="45" t="s">
-        <v>55</v>
+      <c r="C62" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -2123,12 +2260,12 @@
       <c r="N62" s="14"/>
     </row>
     <row r="63">
-      <c r="A63" s="40" t="s">
-        <v>33</v>
+      <c r="A63" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="29" t="s">
-        <v>56</v>
+      <c r="C63" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -2143,11 +2280,11 @@
       <c r="N63" s="14"/>
     </row>
     <row r="64">
-      <c r="A64" s="42" t="s">
-        <v>35</v>
+      <c r="A64" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="18"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -2161,39 +2298,39 @@
       <c r="N64" s="14"/>
     </row>
     <row r="65">
-      <c r="A65" s="46" t="s">
-        <v>36</v>
+      <c r="A65" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="G65" s="17"/>
       <c r="H65" s="14"/>
       <c r="I65" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="J65" s="17"/>
       <c r="K65" s="14"/>
       <c r="L65" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="M65" s="17"/>
       <c r="N65" s="14"/>
     </row>
     <row r="66">
       <c r="A66" s="38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="18"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -2208,7 +2345,7 @@
     </row>
     <row r="67">
       <c r="A67" s="58" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2226,28 +2363,28 @@
     </row>
     <row r="68">
       <c r="A68" s="51" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="14"/>
       <c r="E68" s="52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="14"/>
       <c r="H68" s="52" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="61" t="s">
-        <v>48</v>
+      <c r="K68" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="L68" s="52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M68" s="12"/>
       <c r="N68" s="14"/>
@@ -2257,72 +2394,72 @@
         <v>1.0</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="14"/>
       <c r="E69" s="55" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="56" t="s">
-        <v>66</v>
+      <c r="H69" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="14"/>
-      <c r="K69" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L69" s="56" t="s">
-        <v>67</v>
+      <c r="K69" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L69" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="14"/>
     </row>
     <row r="70">
-      <c r="A70" s="62">
+      <c r="A70" s="61">
         <v>2.0</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="14"/>
       <c r="E70" s="55" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="56" t="s">
-        <v>56</v>
+      <c r="H70" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="14"/>
-      <c r="K70" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L70" s="18"/>
+      <c r="K70" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L70" s="17"/>
       <c r="M70" s="12"/>
       <c r="N70" s="14"/>
     </row>
     <row r="73">
       <c r="A73" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="5"/>
     </row>
     <row r="74">
       <c r="A74" s="38" t="s">
@@ -2330,7 +2467,7 @@
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="39" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -2345,12 +2482,12 @@
       <c r="N74" s="14"/>
     </row>
     <row r="75">
-      <c r="A75" s="40" t="s">
-        <v>26</v>
+      <c r="A75" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="41" t="s">
-        <v>27</v>
+      <c r="C75" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -2365,12 +2502,12 @@
       <c r="N75" s="14"/>
     </row>
     <row r="76">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="43" t="s">
-        <v>27</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -2385,12 +2522,12 @@
       <c r="N76" s="14"/>
     </row>
     <row r="77">
-      <c r="A77" s="40" t="s">
-        <v>29</v>
+      <c r="A77" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="44" t="s">
-        <v>70</v>
+      <c r="C77" s="45" t="s">
+        <v>93</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -2405,12 +2542,12 @@
       <c r="N77" s="14"/>
     </row>
     <row r="78">
-      <c r="A78" s="42" t="s">
-        <v>31</v>
+      <c r="A78" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="45" t="s">
-        <v>55</v>
+      <c r="C78" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -2425,12 +2562,12 @@
       <c r="N78" s="14"/>
     </row>
     <row r="79">
-      <c r="A79" s="40" t="s">
-        <v>33</v>
+      <c r="A79" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="29" t="s">
-        <v>56</v>
+      <c r="C79" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -2445,11 +2582,11 @@
       <c r="N79" s="14"/>
     </row>
     <row r="80">
-      <c r="A80" s="42" t="s">
-        <v>35</v>
+      <c r="A80" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="18"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -2463,39 +2600,39 @@
       <c r="N80" s="14"/>
     </row>
     <row r="81">
-      <c r="A81" s="46" t="s">
-        <v>36</v>
+      <c r="A81" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D81" s="48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="G81" s="17"/>
       <c r="H81" s="14"/>
       <c r="I81" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J81" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="J81" s="17"/>
       <c r="K81" s="14"/>
       <c r="L81" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M81" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="M81" s="17"/>
       <c r="N81" s="14"/>
     </row>
     <row r="82">
       <c r="A82" s="38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B82" s="14"/>
-      <c r="C82" s="18"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -2510,7 +2647,7 @@
     </row>
     <row r="83">
       <c r="A83" s="58" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2528,28 +2665,28 @@
     </row>
     <row r="84">
       <c r="A84" s="51" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B84" s="52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="14"/>
       <c r="E84" s="52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="14"/>
       <c r="H84" s="52" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="14"/>
-      <c r="K84" s="61" t="s">
-        <v>48</v>
+      <c r="K84" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="L84" s="52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="14"/>
@@ -2559,72 +2696,72 @@
         <v>1.0</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="14"/>
       <c r="E85" s="55" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="14"/>
-      <c r="H85" s="56" t="s">
-        <v>66</v>
+      <c r="H85" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="14"/>
-      <c r="K85" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L85" s="56" t="s">
-        <v>67</v>
+      <c r="K85" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L85" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="14"/>
     </row>
     <row r="86">
-      <c r="A86" s="63">
+      <c r="A86" s="61">
         <v>2.0</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="14"/>
       <c r="E86" s="55" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="14"/>
-      <c r="H86" s="56" t="s">
-        <v>56</v>
+      <c r="H86" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I86" s="12"/>
       <c r="J86" s="14"/>
-      <c r="K86" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L86" s="18"/>
+      <c r="K86" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L86" s="17"/>
       <c r="M86" s="12"/>
       <c r="N86" s="14"/>
     </row>
     <row r="89">
       <c r="A89" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="38" t="s">
@@ -2632,7 +2769,7 @@
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="39" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
@@ -2647,12 +2784,12 @@
       <c r="N90" s="14"/>
     </row>
     <row r="91">
-      <c r="A91" s="40" t="s">
-        <v>26</v>
+      <c r="A91" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B91" s="14"/>
-      <c r="C91" s="41" t="s">
-        <v>27</v>
+      <c r="C91" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
@@ -2667,12 +2804,12 @@
       <c r="N91" s="14"/>
     </row>
     <row r="92">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="43" t="s">
-        <v>27</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -2687,12 +2824,12 @@
       <c r="N92" s="14"/>
     </row>
     <row r="93">
-      <c r="A93" s="40" t="s">
-        <v>29</v>
+      <c r="A93" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="B93" s="14"/>
-      <c r="C93" s="44" t="s">
-        <v>74</v>
+      <c r="C93" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -2707,12 +2844,12 @@
       <c r="N93" s="14"/>
     </row>
     <row r="94">
-      <c r="A94" s="42" t="s">
-        <v>31</v>
+      <c r="A94" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="B94" s="14"/>
-      <c r="C94" s="45" t="s">
-        <v>75</v>
+      <c r="C94" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -2727,12 +2864,12 @@
       <c r="N94" s="14"/>
     </row>
     <row r="95">
-      <c r="A95" s="40" t="s">
-        <v>33</v>
+      <c r="A95" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B95" s="14"/>
-      <c r="C95" s="29" t="s">
-        <v>76</v>
+      <c r="C95" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -2747,11 +2884,11 @@
       <c r="N95" s="14"/>
     </row>
     <row r="96">
-      <c r="A96" s="42" t="s">
-        <v>35</v>
+      <c r="A96" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B96" s="14"/>
-      <c r="C96" s="18"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -2765,39 +2902,39 @@
       <c r="N96" s="14"/>
     </row>
     <row r="97">
-      <c r="A97" s="46" t="s">
-        <v>36</v>
+      <c r="A97" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B97" s="14"/>
       <c r="C97" s="47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="G97" s="17"/>
       <c r="H97" s="14"/>
       <c r="I97" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J97" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="J97" s="17"/>
       <c r="K97" s="14"/>
       <c r="L97" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M97" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="M97" s="17"/>
       <c r="N97" s="14"/>
     </row>
     <row r="98">
       <c r="A98" s="38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B98" s="14"/>
-      <c r="C98" s="18"/>
+      <c r="C98" s="17"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -2812,7 +2949,7 @@
     </row>
     <row r="99">
       <c r="A99" s="58" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -2830,28 +2967,28 @@
     </row>
     <row r="100">
       <c r="A100" s="51" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="14"/>
       <c r="E100" s="52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="14"/>
       <c r="H100" s="52" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I100" s="12"/>
       <c r="J100" s="14"/>
-      <c r="K100" s="61" t="s">
-        <v>48</v>
+      <c r="K100" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="L100" s="52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="14"/>
@@ -2861,44 +2998,44 @@
         <v>1.0</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="14"/>
       <c r="E101" s="55" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="14"/>
-      <c r="H101" s="56" t="s">
-        <v>76</v>
+      <c r="H101" s="57" t="s">
+        <v>103</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="14"/>
-      <c r="K101" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L101" s="18"/>
+      <c r="K101" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L101" s="17"/>
       <c r="M101" s="12"/>
       <c r="N101" s="14"/>
     </row>
     <row r="104">
       <c r="A104" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="5"/>
     </row>
     <row r="105">
       <c r="A105" s="38" t="s">
@@ -2906,7 +3043,7 @@
       </c>
       <c r="B105" s="14"/>
       <c r="C105" s="39" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -2921,12 +3058,12 @@
       <c r="N105" s="14"/>
     </row>
     <row r="106">
-      <c r="A106" s="40" t="s">
-        <v>26</v>
+      <c r="A106" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B106" s="14"/>
-      <c r="C106" s="41" t="s">
-        <v>27</v>
+      <c r="C106" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -2941,12 +3078,12 @@
       <c r="N106" s="14"/>
     </row>
     <row r="107">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="43" t="s">
-        <v>27</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -2961,12 +3098,12 @@
       <c r="N107" s="14"/>
     </row>
     <row r="108">
-      <c r="A108" s="40" t="s">
-        <v>29</v>
+      <c r="A108" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="B108" s="14"/>
-      <c r="C108" s="44" t="s">
-        <v>80</v>
+      <c r="C108" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -2981,12 +3118,12 @@
       <c r="N108" s="14"/>
     </row>
     <row r="109">
-      <c r="A109" s="42" t="s">
-        <v>31</v>
+      <c r="A109" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="B109" s="14"/>
-      <c r="C109" s="45" t="s">
-        <v>81</v>
+      <c r="C109" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -3001,12 +3138,12 @@
       <c r="N109" s="14"/>
     </row>
     <row r="110">
-      <c r="A110" s="40" t="s">
-        <v>33</v>
+      <c r="A110" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B110" s="14"/>
-      <c r="C110" s="29" t="s">
-        <v>82</v>
+      <c r="C110" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -3021,11 +3158,11 @@
       <c r="N110" s="14"/>
     </row>
     <row r="111">
-      <c r="A111" s="42" t="s">
-        <v>35</v>
+      <c r="A111" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B111" s="14"/>
-      <c r="C111" s="18"/>
+      <c r="C111" s="17"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -3039,39 +3176,39 @@
       <c r="N111" s="14"/>
     </row>
     <row r="112">
-      <c r="A112" s="46" t="s">
-        <v>36</v>
+      <c r="A112" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D112" s="48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G112" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="G112" s="17"/>
       <c r="H112" s="14"/>
       <c r="I112" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J112" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="J112" s="17"/>
       <c r="K112" s="14"/>
       <c r="L112" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M112" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="M112" s="17"/>
       <c r="N112" s="14"/>
     </row>
     <row r="113">
       <c r="A113" s="38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B113" s="14"/>
-      <c r="C113" s="18"/>
+      <c r="C113" s="17"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -3086,7 +3223,7 @@
     </row>
     <row r="114">
       <c r="A114" s="58" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3104,117 +3241,128 @@
     </row>
     <row r="115">
       <c r="A115" s="51" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="14"/>
       <c r="E115" s="52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="14"/>
       <c r="H115" s="52" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="14"/>
-      <c r="K115" s="61" t="s">
-        <v>48</v>
+      <c r="K115" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="L115" s="52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M115" s="12"/>
       <c r="N115" s="14"/>
     </row>
     <row r="116">
-      <c r="A116" s="60">
+      <c r="A116" s="54">
         <v>1.0</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="14"/>
       <c r="E116" s="55" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="14"/>
-      <c r="H116" s="56" t="s">
-        <v>56</v>
+      <c r="H116" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I116" s="12"/>
       <c r="J116" s="14"/>
-      <c r="K116" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L116" s="18"/>
+      <c r="K116" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L116" s="17"/>
       <c r="M116" s="12"/>
       <c r="N116" s="14"/>
     </row>
     <row r="117">
-      <c r="A117" s="63">
+      <c r="A117" s="61">
         <v>2.0</v>
       </c>
       <c r="B117" s="55" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="14"/>
       <c r="E117" s="55" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="14"/>
-      <c r="H117" s="56" t="s">
-        <v>82</v>
+      <c r="H117" s="57" t="s">
+        <v>112</v>
       </c>
       <c r="I117" s="12"/>
       <c r="J117" s="14"/>
-      <c r="K117" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L117" s="18"/>
+      <c r="K117" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L117" s="17"/>
       <c r="M117" s="12"/>
       <c r="N117" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="237">
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="D6:N9"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="C34:N34"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C36:N36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C106:N106"/>
+    <mergeCell ref="C107:N107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="A114:N114"/>
+    <mergeCell ref="C113:N113"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C108:N108"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C110:N110"/>
+    <mergeCell ref="C109:N109"/>
+    <mergeCell ref="C111:N111"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="A104:N104"/>
+    <mergeCell ref="C105:N105"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="A105:B105"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="B54:D54"/>
@@ -3222,30 +3370,25 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A65:B65"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:G70"/>
     <mergeCell ref="H70:J70"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:G69"/>
     <mergeCell ref="H69:J69"/>
-    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="H68:J68"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H84:J84"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="G81:H81"/>
@@ -3253,174 +3396,3534 @@
     <mergeCell ref="E84:G84"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C45:N45"/>
+    <mergeCell ref="C46:N46"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:N95"/>
+    <mergeCell ref="C94:N94"/>
+    <mergeCell ref="C92:N92"/>
+    <mergeCell ref="C93:N93"/>
+    <mergeCell ref="C96:N96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C64:N64"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="C66:N66"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C90:N90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="C76:N76"/>
+    <mergeCell ref="C77:N77"/>
+    <mergeCell ref="C79:N79"/>
+    <mergeCell ref="C78:N78"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:G69"/>
     <mergeCell ref="A73:N73"/>
     <mergeCell ref="C75:N75"/>
     <mergeCell ref="C74:N74"/>
     <mergeCell ref="L70:N70"/>
     <mergeCell ref="C80:N80"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A83:N83"/>
-    <mergeCell ref="C82:N82"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="C61:N61"/>
+    <mergeCell ref="C63:N63"/>
+    <mergeCell ref="C62:N62"/>
     <mergeCell ref="A52:N52"/>
     <mergeCell ref="C51:N51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:H50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="M50:N50"/>
     <mergeCell ref="A57:N57"/>
     <mergeCell ref="C59:N59"/>
     <mergeCell ref="C60:N60"/>
-    <mergeCell ref="C61:N61"/>
-    <mergeCell ref="C63:N63"/>
-    <mergeCell ref="C62:N62"/>
     <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C64:N64"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="A67:N67"/>
-    <mergeCell ref="C66:N66"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="C76:N76"/>
-    <mergeCell ref="C77:N77"/>
-    <mergeCell ref="C79:N79"/>
-    <mergeCell ref="C78:N78"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A99:N99"/>
-    <mergeCell ref="C98:N98"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D6:N9"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="A27:N27"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="C16:N16"/>
     <mergeCell ref="A22:N22"/>
     <mergeCell ref="C21:N21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A89:N89"/>
+    <mergeCell ref="C91:N91"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A83:N83"/>
+    <mergeCell ref="C82:N82"/>
+    <mergeCell ref="A99:N99"/>
+    <mergeCell ref="C98:N98"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="M97:N97"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.57"/>
+    <col customWidth="1" min="2" max="2" width="15.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="60">
+        <v>2.0</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="14"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="14"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="14"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="14"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="14"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" s="17"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M51" s="17"/>
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="14"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="14"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="12"/>
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="14"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="14"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="14"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="14"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="14"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="14"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" s="17"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M66" s="17"/>
+      <c r="N66" s="14"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="14"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="14"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M69" s="12"/>
+      <c r="N69" s="14"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="14"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="14"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="14"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="14"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="14"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="14"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="14"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="14"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" s="17"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" s="17"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M81" s="17"/>
+      <c r="N81" s="14"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="14"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="14"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="12"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M84" s="12"/>
+      <c r="N84" s="14"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="B85" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85" s="12"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L85" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="M85" s="12"/>
+      <c r="N85" s="14"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="61">
+        <v>2.0</v>
+      </c>
+      <c r="B86" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I86" s="12"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="14"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="14"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="14"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="14"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="14"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="14"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="14"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="14"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" s="17"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J97" s="17"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M97" s="17"/>
+      <c r="N97" s="14"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="14"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="14"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I100" s="12"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M100" s="12"/>
+      <c r="N100" s="14"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="B101" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I101" s="12"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L101" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="M101" s="12"/>
+      <c r="N101" s="14"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="61">
+        <v>2.0</v>
+      </c>
+      <c r="B102" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102" s="12"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="14"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="14"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="14"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="14"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="14"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="14"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="14"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="14"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112" s="17"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="J112" s="17"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="M112" s="17"/>
+      <c r="N112" s="14"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="14"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="14"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" s="12"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I115" s="12"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="L115" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M115" s="12"/>
+      <c r="N115" s="14"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="B116" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F116" s="12"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I116" s="12"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L116" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="M116" s="12"/>
+      <c r="N116" s="14"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="60">
+        <v>2.0</v>
+      </c>
+      <c r="B117" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F117" s="12"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I117" s="12"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="14"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="14"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="14"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="14"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="14"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="14"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="14"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" s="17"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J128" s="17"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M128" s="17"/>
+      <c r="N128" s="14"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="14"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="14"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F131" s="12"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I131" s="12"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L131" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M131" s="12"/>
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="B132" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I132" s="12"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L132" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="M132" s="12"/>
+      <c r="N132" s="14"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="61">
+        <v>2.0</v>
+      </c>
+      <c r="B133" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="12"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I133" s="12"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="14"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="14"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="14"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="14"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="14"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="14"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="14"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="14"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" s="12"/>
+      <c r="F144" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" s="17"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J144" s="17"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M144" s="17"/>
+      <c r="N144" s="14"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="14"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="14"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I147" s="12"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L147" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M147" s="12"/>
+      <c r="N147" s="14"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="B148" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F148" s="12"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I148" s="12"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L148" s="57"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="14"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="14"/>
+      <c r="C152" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="14"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="14"/>
+      <c r="C153" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="14"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="14"/>
+      <c r="C154" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="14"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="14"/>
+      <c r="C155" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="14"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B156" s="14"/>
+      <c r="C156" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="14"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157" s="14"/>
+      <c r="C157" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="14"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B158" s="14"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="14"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B159" s="14"/>
+      <c r="C159" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G159" s="17"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J159" s="17"/>
+      <c r="K159" s="14"/>
+      <c r="L159" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M159" s="17"/>
+      <c r="N159" s="14"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" s="14"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="14"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="14"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F162" s="12"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I162" s="12"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L162" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M162" s="12"/>
+      <c r="N162" s="14"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="B163" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F163" s="12"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163" s="12"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L163" s="57"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="338">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="C19:N19"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="C17:N17"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:N65"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="C67:N67"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="D6:N9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C45:N45"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:J39"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:N52"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A43:N43"/>
     <mergeCell ref="C46:N46"/>
-    <mergeCell ref="C49:N49"/>
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="C95:N95"/>
-    <mergeCell ref="C94:N94"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C45:N45"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C60:N60"/>
+    <mergeCell ref="C61:N61"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C62:N62"/>
+    <mergeCell ref="C64:N64"/>
+    <mergeCell ref="C63:N63"/>
+    <mergeCell ref="C59:N59"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:N90"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="L86:N86"/>
     <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A89:N89"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:N76"/>
+    <mergeCell ref="C75:N75"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="C77:N77"/>
+    <mergeCell ref="C79:N79"/>
+    <mergeCell ref="C78:N78"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="C80:N80"/>
+    <mergeCell ref="A73:N73"/>
+    <mergeCell ref="C74:N74"/>
     <mergeCell ref="C91:N91"/>
+    <mergeCell ref="A99:N99"/>
+    <mergeCell ref="C98:N98"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="C82:N82"/>
+    <mergeCell ref="A83:N83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
     <mergeCell ref="C92:N92"/>
     <mergeCell ref="C93:N93"/>
-    <mergeCell ref="C96:N96"/>
-    <mergeCell ref="C90:N90"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C110:N110"/>
-    <mergeCell ref="C109:N109"/>
-    <mergeCell ref="C111:N111"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A89:N89"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H115:J115"/>
     <mergeCell ref="E115:G115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="A104:N104"/>
-    <mergeCell ref="C106:N106"/>
+    <mergeCell ref="B115:D115"/>
     <mergeCell ref="C107:N107"/>
     <mergeCell ref="C108:N108"/>
-    <mergeCell ref="C105:N105"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A120:N120"/>
+    <mergeCell ref="C121:N121"/>
+    <mergeCell ref="C125:N125"/>
+    <mergeCell ref="C123:N123"/>
+    <mergeCell ref="C124:N124"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:N126"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C137:N137"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C139:N139"/>
+    <mergeCell ref="C138:N138"/>
+    <mergeCell ref="L133:N133"/>
+    <mergeCell ref="A136:N136"/>
+    <mergeCell ref="C141:N141"/>
+    <mergeCell ref="C140:N140"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C129:N129"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="C122:N122"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A130:N130"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:N142"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="L148:N148"/>
+    <mergeCell ref="L147:N147"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="L163:N163"/>
+    <mergeCell ref="L162:N162"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:N145"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="A146:N146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="C157:N157"/>
+    <mergeCell ref="C158:N158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:N160"/>
+    <mergeCell ref="A161:N161"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="E163:G163"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="C152:N152"/>
+    <mergeCell ref="C154:N154"/>
+    <mergeCell ref="C153:N153"/>
+    <mergeCell ref="A151:N151"/>
+    <mergeCell ref="C156:N156"/>
+    <mergeCell ref="C155:N155"/>
+    <mergeCell ref="C106:N106"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
     <mergeCell ref="A114:N114"/>
     <mergeCell ref="C113:N113"/>
     <mergeCell ref="J112:K112"/>
     <mergeCell ref="M112:N112"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:N110"/>
+    <mergeCell ref="C96:N96"/>
+    <mergeCell ref="A96:B96"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="C95:N95"/>
+    <mergeCell ref="C94:N94"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="C111:N111"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A104:N104"/>
+    <mergeCell ref="C105:N105"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="C109:N109"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A113:B113"/>
     <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A108:B108"/>
     <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="E147:G147"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
